--- a/tests/resources/finances/2019.xlsx
+++ b/tests/resources/finances/2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,7 +139,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +206,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -209,6 +219,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -219,14 +289,14 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.35"/>
@@ -251,35 +321,35 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="3" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="3" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="3" t="n">
         <v>100</v>
       </c>
     </row>
@@ -317,35 +387,35 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="3" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="3" t="n">
         <v>467</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="3" t="n">
         <v>43</v>
       </c>
     </row>
@@ -383,24 +453,24 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="3" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="3" t="n">
         <v>30</v>
       </c>
     </row>
@@ -585,7 +655,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1070,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -1033,7 +1103,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
